--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -517,6 +517,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="B10" t="n">
+        <v>673.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>674.18</v>
+      </c>
+      <c r="D10" t="n">
+        <v>673.84</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -534,6 +534,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B11" t="n">
+        <v>673.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>674.18</v>
+      </c>
+      <c r="D11" t="n">
+        <v>673.84</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -539,16 +539,16 @@
         <v>45180</v>
       </c>
       <c r="B11" t="n">
-        <v>673.5</v>
+        <v>683.7</v>
       </c>
       <c r="C11" t="n">
-        <v>674.18</v>
+        <v>684.08</v>
       </c>
       <c r="D11" t="n">
-        <v>673.84</v>
+        <v>683.89</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -539,16 +539,16 @@
         <v>45180</v>
       </c>
       <c r="B11" t="n">
-        <v>683.7</v>
+        <v>676.45</v>
       </c>
       <c r="C11" t="n">
-        <v>684.08</v>
+        <v>678.18</v>
       </c>
       <c r="D11" t="n">
-        <v>683.89</v>
+        <v>677.32</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -539,16 +539,16 @@
         <v>45180</v>
       </c>
       <c r="B11" t="n">
-        <v>676.45</v>
+        <v>674.83</v>
       </c>
       <c r="C11" t="n">
-        <v>678.18</v>
+        <v>675.54</v>
       </c>
       <c r="D11" t="n">
-        <v>677.32</v>
+        <v>675.18</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -551,6 +551,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B12" t="n">
+        <v>674.83</v>
+      </c>
+      <c r="C12" t="n">
+        <v>675.54</v>
+      </c>
+      <c r="D12" t="n">
+        <v>675.18</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -556,16 +556,16 @@
         <v>45181</v>
       </c>
       <c r="B12" t="n">
-        <v>674.83</v>
+        <v>681.73</v>
       </c>
       <c r="C12" t="n">
-        <v>675.54</v>
+        <v>682.17</v>
       </c>
       <c r="D12" t="n">
-        <v>675.18</v>
+        <v>681.95</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -556,16 +556,16 @@
         <v>45181</v>
       </c>
       <c r="B12" t="n">
-        <v>681.73</v>
+        <v>675.77</v>
       </c>
       <c r="C12" t="n">
-        <v>682.17</v>
+        <v>676.46</v>
       </c>
       <c r="D12" t="n">
-        <v>681.95</v>
+        <v>676.12</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -534,6 +534,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B11" t="n">
+        <v>675.77</v>
+      </c>
+      <c r="C11" t="n">
+        <v>676.46</v>
+      </c>
+      <c r="D11" t="n">
+        <v>676.12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -551,6 +551,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B12" t="n">
+        <v>675.77</v>
+      </c>
+      <c r="C12" t="n">
+        <v>676.46</v>
+      </c>
+      <c r="D12" t="n">
+        <v>676.12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -556,16 +556,16 @@
         <v>45182</v>
       </c>
       <c r="B12" t="n">
-        <v>675.77</v>
+        <v>681.85</v>
       </c>
       <c r="C12" t="n">
-        <v>676.46</v>
+        <v>683.31</v>
       </c>
       <c r="D12" t="n">
-        <v>676.12</v>
+        <v>682.58</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -556,16 +556,16 @@
         <v>45182</v>
       </c>
       <c r="B12" t="n">
-        <v>681.85</v>
+        <v>678.24</v>
       </c>
       <c r="C12" t="n">
-        <v>683.31</v>
+        <v>678.64</v>
       </c>
       <c r="D12" t="n">
-        <v>682.58</v>
+        <v>678.44</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -568,6 +568,23 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B13" t="n">
+        <v>678.24</v>
+      </c>
+      <c r="C13" t="n">
+        <v>678.64</v>
+      </c>
+      <c r="D13" t="n">
+        <v>678.44</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -573,13 +573,13 @@
         <v>45183</v>
       </c>
       <c r="B13" t="n">
-        <v>678.24</v>
+        <v>681.56</v>
       </c>
       <c r="C13" t="n">
-        <v>678.64</v>
+        <v>681.84</v>
       </c>
       <c r="D13" t="n">
-        <v>678.44</v>
+        <v>681.7</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -573,16 +573,16 @@
         <v>45183</v>
       </c>
       <c r="B13" t="n">
-        <v>681.56</v>
+        <v>677.05</v>
       </c>
       <c r="C13" t="n">
-        <v>681.84</v>
+        <v>677.79</v>
       </c>
       <c r="D13" t="n">
-        <v>681.7</v>
+        <v>677.42</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -551,6 +551,57 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B12" t="n">
+        <v>675.77</v>
+      </c>
+      <c r="C12" t="n">
+        <v>676.46</v>
+      </c>
+      <c r="D12" t="n">
+        <v>676.12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B13" t="n">
+        <v>675.77</v>
+      </c>
+      <c r="C13" t="n">
+        <v>676.46</v>
+      </c>
+      <c r="D13" t="n">
+        <v>676.12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B14" t="n">
+        <v>677.05</v>
+      </c>
+      <c r="C14" t="n">
+        <v>677.79</v>
+      </c>
+      <c r="D14" t="n">
+        <v>677.42</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -590,16 +590,16 @@
         <v>45184</v>
       </c>
       <c r="B14" t="n">
-        <v>677.05</v>
+        <v>680.77</v>
       </c>
       <c r="C14" t="n">
-        <v>677.79</v>
+        <v>682.1</v>
       </c>
       <c r="D14" t="n">
-        <v>677.42</v>
+        <v>681.43</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -590,13 +590,13 @@
         <v>45184</v>
       </c>
       <c r="B14" t="n">
-        <v>680.77</v>
+        <v>678.68</v>
       </c>
       <c r="C14" t="n">
-        <v>682.1</v>
+        <v>680.73</v>
       </c>
       <c r="D14" t="n">
-        <v>681.43</v>
+        <v>679.7</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -602,6 +602,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B15" t="n">
+        <v>686.34</v>
+      </c>
+      <c r="C15" t="n">
+        <v>686.34</v>
+      </c>
+      <c r="D15" t="n">
+        <v>686.34</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -602,6 +602,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B15" t="n">
+        <v>685.03</v>
+      </c>
+      <c r="C15" t="n">
+        <v>685.03</v>
+      </c>
+      <c r="D15" t="n">
+        <v>685.03</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -602,23 +602,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>45187</v>
-      </c>
-      <c r="B15" t="n">
-        <v>685.03</v>
-      </c>
-      <c r="C15" t="n">
-        <v>685.03</v>
-      </c>
-      <c r="D15" t="n">
-        <v>685.03</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/dolarmep.xlsx
+++ b/data/dolarmep.xlsx
@@ -607,13 +607,13 @@
         <v>45187</v>
       </c>
       <c r="B15" t="n">
-        <v>685.03</v>
+        <v>683.56</v>
       </c>
       <c r="C15" t="n">
-        <v>685.03</v>
+        <v>684.05</v>
       </c>
       <c r="D15" t="n">
-        <v>685.03</v>
+        <v>683.8</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
